--- a/doc/設計検討/演算検討.xlsx
+++ b/doc/設計検討/演算検討.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="11700" windowHeight="7332" activeTab="2"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="11700" windowHeight="7332"/>
   </bookViews>
   <sheets>
     <sheet name="四則演算" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="163">
   <si>
     <t>+</t>
     <phoneticPr fontId="1"/>
@@ -397,13 +397,6 @@
   </si>
   <si>
     <t>error</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1695,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1763,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1804,7 +1797,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1818,7 +1811,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1909,7 +1902,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1923,7 +1916,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1957,14 +1950,14 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1973,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2012,13 +2005,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -2032,7 +2025,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2114,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2127,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2209,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2222,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2304,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2317,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2336,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2552,19 +2545,19 @@
         <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,22 +2565,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2595,22 +2588,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2618,22 +2611,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2641,22 +2634,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2664,19 +2657,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>50</v>
@@ -3337,9 +3330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3352,18 +3345,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3371,13 +3364,13 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3385,10 +3378,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -3399,10 +3392,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -3413,10 +3406,10 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -3427,24 +3420,24 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
         <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,10 +3445,10 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
@@ -3463,13 +3456,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,10 +3470,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -3491,10 +3484,10 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -3502,24 +3495,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
         <v>113</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -3527,13 +3520,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -3541,24 +3534,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3573,9 +3566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3600,7 +3593,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3753,7 +3746,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3775,212 +3768,212 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
         <v>117</v>
       </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
         <v>50</v>
@@ -3988,27 +3981,27 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>50</v>
@@ -4016,10 +4009,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
         <v>50</v>
@@ -4027,10 +4020,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -4038,10 +4031,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>50</v>
@@ -4049,10 +4042,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
       </c>
       <c r="E32" t="s">
         <v>50</v>
@@ -4060,33 +4053,33 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
         <v>147</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>148</v>
-      </c>
-      <c r="C34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/doc/設計検討/演算検討.xlsx
+++ b/doc/設計検討/演算検討.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="11700" windowHeight="7332"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="11700" windowHeight="7332"/>
   </bookViews>
   <sheets>
     <sheet name="四則演算" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">コマンド!$A$4:$D$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">関数!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">関数!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1313,7 +1313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,6 +1334,24 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1378,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1404,6 +1422,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3328,6 +3352,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3429,7 +3454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -3454,7 +3479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -3480,27 +3505,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3532,7 +3557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -3543,7 +3568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3555,7 +3580,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:D18"/>
+  <autoFilter ref="A4:D18">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3564,6 +3595,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3766,7 +3798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3780,7 +3812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3794,7 +3826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3808,7 +3840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3822,7 +3854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3836,7 +3868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -3850,7 +3882,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -3864,7 +3896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3878,7 +3910,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3892,7 +3924,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -3906,7 +3938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -3920,7 +3952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3934,7 +3966,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3948,7 +3980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4051,12 +4083,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -4067,23 +4099,29 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25"/>
+  <autoFilter ref="A1:E37">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
